--- a/assets/content_measurements.xlsx
+++ b/assets/content_measurements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Serena/Desktop/GuRu/GuRu/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A270EF67-DA53-3B48-8C59-E746EB51549A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D889AB-AE22-884F-BE33-CDD0FE21F7E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19140" windowHeight="20200" xr2:uid="{D55199DA-A16C-9B42-9487-DD2A902BF919}"/>
+    <workbookView xWindow="2360" yWindow="720" windowWidth="32220" windowHeight="20200" activeTab="1" xr2:uid="{D55199DA-A16C-9B42-9487-DD2A902BF919}"/>
   </bookViews>
   <sheets>
     <sheet name="meas_overview" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="223">
   <si>
     <t>Family sociodemographics</t>
   </si>
@@ -711,6 +711,9 @@
   </si>
   <si>
     <t>[subsample-mother] [subsample-father] [child] EEG</t>
+  </si>
+  <si>
+    <t>22 years</t>
   </si>
 </sst>
 </file>
@@ -763,7 +766,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -775,6 +778,15 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1109,10 +1121,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A6FD747-5845-734E-8FB8-42C2CD6ABB85}">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.7109375" defaultRowHeight="16"/>
@@ -1122,7 +1134,7 @@
     <col min="3" max="3" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="4" t="s">
         <v>151</v>
       </c>
@@ -1165,8 +1177,11 @@
       <c r="N1" s="4" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1177,7 +1192,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1197,7 +1212,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1208,7 +1223,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1252,7 +1267,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1296,7 +1311,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1340,7 +1355,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1360,7 +1375,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="16" customHeight="1">
+    <row r="9" spans="1:15" ht="16" customHeight="1">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1371,7 +1386,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1400,7 +1415,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1411,7 +1426,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1440,7 +1455,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1454,7 +1469,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1477,7 +1492,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1488,7 +1503,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1666,719 +1681,719 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AD1F27C-37FA-7F46-A230-A13C42AF927D}">
   <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="23.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="44.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="255.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="101.140625" style="7" customWidth="1"/>
     <col min="4" max="16384" width="10.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3" ht="17">
       <c r="A1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18" customHeight="1">
+    <row r="2" spans="1:3" ht="153">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18" customHeight="1">
+    <row r="3" spans="1:3" ht="102">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18" customHeight="1">
+    <row r="4" spans="1:3" ht="136">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18" customHeight="1">
+    <row r="5" spans="1:3" ht="187">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18" customHeight="1">
+    <row r="6" spans="1:3" ht="170">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18" customHeight="1">
+    <row r="7" spans="1:3" ht="204">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18" customHeight="1">
+    <row r="8" spans="1:3" ht="187">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18" customHeight="1">
+    <row r="9" spans="1:3" ht="204">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18" customHeight="1">
+    <row r="10" spans="1:3" ht="153">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18" customHeight="1">
+    <row r="11" spans="1:3" ht="170">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18" customHeight="1">
+    <row r="12" spans="1:3" ht="238">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="18" customHeight="1">
+    <row r="13" spans="1:3" ht="187">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="18" customHeight="1">
+    <row r="14" spans="1:3" ht="153">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="18" customHeight="1">
+    <row r="15" spans="1:3" ht="153">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="18" customHeight="1">
+    <row r="16" spans="1:3" ht="153">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="18" customHeight="1">
+    <row r="17" spans="1:3" ht="153">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18" customHeight="1">
+    <row r="18" spans="1:3" ht="170">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="18" customHeight="1">
+    <row r="19" spans="1:3" ht="136">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="18" customHeight="1">
+    <row r="20" spans="1:3" ht="136">
       <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="18" customHeight="1">
+    <row r="21" spans="1:3" ht="187">
       <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="18" customHeight="1">
+    <row r="22" spans="1:3" ht="187">
       <c r="A22" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="18" customHeight="1">
+    <row r="23" spans="1:3" ht="85">
       <c r="A23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="18" customHeight="1">
+    <row r="24" spans="1:3" ht="102">
       <c r="A24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="18" customHeight="1">
+    <row r="25" spans="1:3" ht="102">
       <c r="A25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="18" customHeight="1">
+    <row r="26" spans="1:3" ht="119">
       <c r="A26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="7" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="18" customHeight="1">
+    <row r="27" spans="1:3" ht="85">
       <c r="A27" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="18" customHeight="1">
+    <row r="28" spans="1:3" ht="119">
       <c r="A28" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="18" customHeight="1">
+    <row r="29" spans="1:3" ht="238">
       <c r="A29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="18" customHeight="1">
+    <row r="30" spans="1:3" ht="119">
       <c r="A30" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="18" customHeight="1">
+    <row r="31" spans="1:3" ht="409.6">
       <c r="A31" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="18" customHeight="1">
+    <row r="32" spans="1:3" ht="255">
       <c r="A32" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="18" customHeight="1">
+    <row r="33" spans="1:3" ht="153">
       <c r="A33" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="18" customHeight="1">
+    <row r="34" spans="1:3" ht="136">
       <c r="A34" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="18" customHeight="1">
+    <row r="35" spans="1:3" ht="102">
       <c r="A35" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="18" customHeight="1">
+    <row r="36" spans="1:3" ht="85">
       <c r="A36" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="18" customHeight="1">
+    <row r="37" spans="1:3" ht="85">
       <c r="A37" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="18" customHeight="1">
+    <row r="38" spans="1:3" ht="119">
       <c r="A38" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="18" customHeight="1">
+    <row r="39" spans="1:3" ht="170">
       <c r="A39" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="7" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="18" customHeight="1">
+    <row r="40" spans="1:3" ht="119">
       <c r="A40" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="18" customHeight="1">
+    <row r="41" spans="1:3" ht="102">
       <c r="A41" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="18" customHeight="1">
+    <row r="42" spans="1:3" ht="119">
       <c r="A42" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="18" customHeight="1">
+    <row r="43" spans="1:3" ht="68">
       <c r="A43" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="18" customHeight="1">
+    <row r="44" spans="1:3" ht="51">
       <c r="A44" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="18" customHeight="1">
+    <row r="45" spans="1:3" ht="34">
       <c r="A45" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="18" customHeight="1">
+    <row r="46" spans="1:3" ht="34">
       <c r="A46" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="18" customHeight="1">
+    <row r="47" spans="1:3" ht="34">
       <c r="A47" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="18" customHeight="1">
+    <row r="48" spans="1:3" ht="34">
       <c r="A48" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="18" customHeight="1">
+    <row r="49" spans="1:3" ht="187">
       <c r="A49" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="18" customHeight="1">
+    <row r="50" spans="1:3" ht="289">
       <c r="A50" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="18" customHeight="1">
+    <row r="51" spans="1:3" ht="119">
       <c r="A51" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="18" customHeight="1">
+    <row r="52" spans="1:3" ht="102">
       <c r="A52" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="18" customHeight="1">
+    <row r="53" spans="1:3" ht="51">
       <c r="A53" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="18" customHeight="1">
+    <row r="54" spans="1:3" ht="221">
       <c r="A54" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="18" customHeight="1">
+    <row r="55" spans="1:3" ht="85">
       <c r="A55" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="7" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="18" customHeight="1">
+    <row r="56" spans="1:3" ht="221">
       <c r="A56" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="18" customHeight="1">
+    <row r="57" spans="1:3" ht="85">
       <c r="A57" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="18" customHeight="1">
+    <row r="58" spans="1:3" ht="170">
       <c r="A58" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="7" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="18" customHeight="1">
+    <row r="59" spans="1:3" ht="34">
       <c r="A59" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="7" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="18" customHeight="1">
+    <row r="60" spans="1:3" ht="85">
       <c r="A60" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="7" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="18" customHeight="1">
+    <row r="61" spans="1:3" ht="102">
       <c r="A61" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="7" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="18" customHeight="1">
+    <row r="62" spans="1:3" ht="153">
       <c r="A62" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="7" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="18" customHeight="1">
+    <row r="63" spans="1:3" ht="221">
       <c r="A63" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="7" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="18" customHeight="1">
+    <row r="64" spans="1:3" ht="51">
       <c r="A64" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="7" t="s">
         <v>150</v>
       </c>
     </row>
